--- a/Excel_Challenge_786 - Sum of Items.xlsx
+++ b/Excel_Challenge_786 - Sum of Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysztofnowak/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAYVERMA\0. Vijay\Excel_Social\Staging\Current Week\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB65AB64-F790-4648-85D2-7A6C008B05F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38ED6054-1DF1-4564-8C59-8F3CAA0569E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Answer Expected</t>
+  </si>
   <si>
     <t>Data</t>
   </si>
   <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>2 Monitors / 2 Docks</t>
   </si>
   <si>
+    <t>Monitor</t>
+  </si>
+  <si>
     <t>1 Headset / Monitors 3</t>
   </si>
   <si>
+    <t>Dock</t>
+  </si>
+  <si>
     <t>iPhone 1</t>
   </si>
   <si>
+    <t>Headset</t>
+  </si>
+  <si>
     <t>1 Dock / Headset 7 / 6 RAM</t>
   </si>
   <si>
+    <t>iPhone</t>
+  </si>
+  <si>
     <t>2 Monitors / 3 Headset</t>
+  </si>
+  <si>
+    <t>RAM</t>
   </si>
   <si>
     <t>Docks 5</t>
@@ -66,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +166,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173294</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Woman in wheelchair holding wheel">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503CA169-57F6-A151-7E50-6F9611F5E405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1822450" y="0"/>
+          <a:ext cx="5050094" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -240,7 +314,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
@@ -543,58 +617,94 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
